--- a/julia/Parameterizations/calibration_Nov4.xlsx
+++ b/julia/Parameterizations/calibration_Nov4.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\Research\Teachers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\teachers\julia\Parameterizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4477C44-9CAD-4C67-81FC-5730DB55DE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2A543-E39C-49C8-ABA8-437F49F6E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
     <sheet name="occ_shares" sheetId="4" r:id="rId2"/>
     <sheet name="compar_stat" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="143">
   <si>
     <t>output</t>
   </si>
@@ -447,6 +448,27 @@
   </si>
   <si>
     <t>[-0.4050; -0.1564]</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>Frechet(theta)</t>
+  </si>
+  <si>
+    <t>h is less than 1</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>kappa*h^gamma</t>
+  </si>
+  <si>
+    <t>lambda_female (scale of tau rel to T)</t>
+  </si>
+  <si>
+    <t>lambda_male (scale of tau rel to T)</t>
   </si>
 </sst>
 </file>
@@ -523,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -545,6 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE97B36E-EB7E-41AB-A80A-B97BDD0CFFC5}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1851,7 +1874,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG42" sqref="AG42"/>
+      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4789,4 +4812,615 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E39CD9E-1C94-476B-AB01-C44D77640615}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.999</v>
+      </c>
+      <c r="C4">
+        <v>0.999</v>
+      </c>
+      <c r="D4">
+        <v>0.999</v>
+      </c>
+      <c r="E4">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>2010</v>
+      </c>
+      <c r="C9">
+        <v>2010</v>
+      </c>
+      <c r="D9">
+        <v>2010</v>
+      </c>
+      <c r="E9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11">
+        <v>2010</v>
+      </c>
+      <c r="D11">
+        <v>2010</v>
+      </c>
+      <c r="E11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="17">
+        <v>3.7691675988456602E-6</v>
+      </c>
+      <c r="C20">
+        <v>0.14871198773538699</v>
+      </c>
+      <c r="D20">
+        <v>2.1262390644812699E-2</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4.7514101157888599E-6</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>3.74181457780348E-3</v>
+      </c>
+      <c r="C21">
+        <v>0.77080826898398902</v>
+      </c>
+      <c r="D21">
+        <v>0.29537392832944698</v>
+      </c>
+      <c r="E21">
+        <v>4.4936918354969903E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>270.73201588421699</v>
+      </c>
+      <c r="C22">
+        <v>1.1183336013305301</v>
+      </c>
+      <c r="D22">
+        <v>3.33467398200942</v>
+      </c>
+      <c r="E22">
+        <v>227.026454379021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24">
+        <v>0.997258825868933</v>
+      </c>
+      <c r="C24">
+        <v>0.85746306715555098</v>
+      </c>
+      <c r="D24">
+        <v>0.97591184715801105</v>
+      </c>
+      <c r="E24">
+        <v>0.99798579618518601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>0.99422785112084</v>
+      </c>
+      <c r="C25">
+        <v>0.56009268914888299</v>
+      </c>
+      <c r="D25">
+        <v>0.76432993244089997</v>
+      </c>
+      <c r="E25">
+        <v>0.99354979688447898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1.2337512032765601E-5</v>
+      </c>
+      <c r="C26">
+        <v>3.8438956827681098E-3</v>
+      </c>
+      <c r="D26">
+        <v>2.1283278161620899E-3</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1.59453439331234E-5</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1.18821631625977E-5</v>
+      </c>
+      <c r="C27">
+        <v>3.58980397830426E-3</v>
+      </c>
+      <c r="D27">
+        <v>1.9013358603460599E-3</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1.5278695135325199E-5</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="C28">
+        <v>0.414364585252263</v>
+      </c>
+      <c r="D28">
+        <v>0.42893647227634202</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.44569650152129803</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="C29">
+        <v>0.414364585252263</v>
+      </c>
+      <c r="D29">
+        <v>0.42893647227634202</v>
+      </c>
+      <c r="E29">
+        <v>0.44569650152129803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1.20004091486983E-4</v>
+      </c>
+      <c r="C30">
+        <v>7.7552304471485797E-2</v>
+      </c>
+      <c r="D30">
+        <v>2.5856085963030601E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.5361957258571099E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>1.1557501961827799E-4</v>
+      </c>
+      <c r="C31">
+        <v>7.2425891359757202E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.3098464003703301E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.4719698905210599E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="C35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="D35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="E35">
+        <v>0.44295609599785302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="C36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="D36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="E36">
+        <v>0.44295609599785302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1.8702968764208001E-3</v>
+      </c>
+      <c r="C38">
+        <v>0.46536833952368001</v>
+      </c>
+      <c r="D38">
+        <v>0.15898785552165801</v>
+      </c>
+      <c r="E38">
+        <v>2.2702471490636E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2.3086322133876401E-4</v>
+      </c>
+      <c r="C39">
+        <v>7.7339713538861696E-2</v>
+      </c>
+      <c r="D39">
+        <v>3.8978500709643697E-2</v>
+      </c>
+      <c r="E39">
+        <v>2.9042210533849398E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="17">
+        <v>2.1753902132322099E-7</v>
+      </c>
+      <c r="C40">
+        <v>2.51485334579706E-2</v>
+      </c>
+      <c r="D40">
+        <v>3.01960881956779E-3</v>
+      </c>
+      <c r="E40" s="17">
+        <v>3.2887347778848499E-7</v>
+      </c>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/julia/Parameterizations/calibration_Nov4.xlsx
+++ b/julia/Parameterizations/calibration_Nov4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\teachers\julia\Parameterizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2A543-E39C-49C8-ABA8-437F49F6E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9199B90-008A-42C7-891E-E19B951A32F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,10 +564,10 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,16 +1342,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4819,21 +4819,21 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4849,8 +4849,14 @@
       <c r="E2">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4866,8 +4872,14 @@
       <c r="E3">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4883,8 +4895,14 @@
       <c r="E4">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.999</v>
+      </c>
+      <c r="G4">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4900,8 +4918,14 @@
       <c r="E5">
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4917,8 +4941,14 @@
       <c r="E6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -4934,8 +4964,14 @@
       <c r="E7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>137</v>
       </c>
@@ -4951,8 +4987,14 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -4968,8 +5010,14 @@
       <c r="E9">
         <v>2010</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>2010</v>
+      </c>
+      <c r="G9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -4985,8 +5033,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -5002,8 +5056,14 @@
       <c r="E11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>2010</v>
+      </c>
+      <c r="G11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>141</v>
       </c>
@@ -5019,8 +5079,14 @@
       <c r="E12">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>142</v>
       </c>
@@ -5036,13 +5102,19 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>129</v>
       </c>
@@ -5058,22 +5130,34 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C16" s="5">
         <v>0.9</v>
       </c>
       <c r="D16" s="5">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5">
         <v>1.01</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5092,6 +5176,12 @@
       <c r="E17" s="5">
         <v>1.1000000000000001</v>
       </c>
+      <c r="F17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5101,41 +5191,51 @@
         <v>138</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="17">
-        <v>3.7691675988456602E-6</v>
+      <c r="B20">
+        <v>2.1262390644812699E-2</v>
       </c>
       <c r="C20">
         <v>0.14871198773538699</v>
       </c>
-      <c r="D20">
-        <v>2.1262390644812699E-2</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="D20" s="16">
+        <v>3.7691675988456602E-6</v>
+      </c>
+      <c r="E20" s="16">
         <v>4.7514101157888599E-6</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="F20" s="16">
+        <v>1.5851470806748499E-3</v>
+      </c>
+      <c r="G20">
+        <v>6.5724461834853103E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21">
-        <v>3.74181457780348E-3</v>
+        <v>0.29537392832944698</v>
       </c>
       <c r="C21">
         <v>0.77080826898398902</v>
       </c>
       <c r="D21">
-        <v>0.29537392832944698</v>
+        <v>3.74181457780348E-3</v>
       </c>
       <c r="E21">
         <v>4.4936918354969903E-3</v>
+      </c>
+      <c r="F21">
+        <v>3.7737999106506499E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.11074020749276001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5143,16 +5243,22 @@
         <v>57</v>
       </c>
       <c r="B22">
-        <v>270.73201588421699</v>
+        <v>3.33467398200942</v>
       </c>
       <c r="C22">
         <v>1.1183336013305301</v>
       </c>
       <c r="D22">
-        <v>3.33467398200942</v>
+        <v>270.73201588421699</v>
       </c>
       <c r="E22">
         <v>227.026454379021</v>
+      </c>
+      <c r="F22">
+        <v>26.6791224346705</v>
+      </c>
+      <c r="G22">
+        <v>8.9998789524543596</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5160,16 +5266,22 @@
         <v>97</v>
       </c>
       <c r="B24">
-        <v>0.997258825868933</v>
+        <v>0.97591184715801105</v>
       </c>
       <c r="C24">
         <v>0.85746306715555098</v>
       </c>
       <c r="D24">
-        <v>0.97591184715801105</v>
+        <v>0.997258825868933</v>
       </c>
       <c r="E24">
         <v>0.99798579618518601</v>
+      </c>
+      <c r="F24">
+        <v>0.99636570673414304</v>
+      </c>
+      <c r="G24">
+        <v>0.99134710269517701</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5177,87 +5289,114 @@
         <v>98</v>
       </c>
       <c r="B25">
-        <v>0.99422785112084</v>
+        <v>0.76432993244089997</v>
       </c>
       <c r="C25">
         <v>0.56009268914888299</v>
       </c>
       <c r="D25">
-        <v>0.76432993244089997</v>
+        <v>0.99422785112084</v>
       </c>
       <c r="E25">
         <v>0.99354979688447898</v>
+      </c>
+      <c r="F25">
+        <v>0.96172045776163795</v>
+      </c>
+      <c r="G25">
+        <v>0.89772416068217598</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="17">
-        <v>1.2337512032765601E-5</v>
+      <c r="B26">
+        <v>2.1283278161620899E-3</v>
       </c>
       <c r="C26">
         <v>3.8438956827681098E-3</v>
       </c>
-      <c r="D26">
-        <v>2.1283278161620899E-3</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="D26" s="16">
+        <v>1.2337512032765601E-5</v>
+      </c>
+      <c r="E26" s="16">
         <v>1.59453439331234E-5</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="F26" s="16">
+        <v>2.31304652478287E-4</v>
+      </c>
+      <c r="G26">
+        <v>8.2030825145163301E-4</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="17">
-        <v>1.18821631625977E-5</v>
+      <c r="B27">
+        <v>1.9013358603460599E-3</v>
       </c>
       <c r="C27">
         <v>3.58980397830426E-3</v>
       </c>
-      <c r="D27">
-        <v>1.9013358603460599E-3</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="D27" s="16">
+        <v>1.18821631625977E-5</v>
+      </c>
+      <c r="E27" s="16">
         <v>1.5278695135325199E-5</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="F27" s="16">
+        <v>2.0961979621999001E-4</v>
+      </c>
+      <c r="G27">
+        <v>7.3198010811620297E-4</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>91</v>
       </c>
       <c r="B28">
-        <v>0.44295609599785302</v>
+        <v>0.42893647227634202</v>
       </c>
       <c r="C28">
         <v>0.414364585252263</v>
       </c>
       <c r="D28">
-        <v>0.42893647227634202</v>
-      </c>
-      <c r="E28" s="17">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="E28" s="16">
         <v>0.44569650152129803</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="F28" s="16">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="G28">
+        <v>0.44019483959917399</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
       <c r="B29">
-        <v>0.44295609599785302</v>
+        <v>0.42893647227634202</v>
       </c>
       <c r="C29">
         <v>0.414364585252263</v>
       </c>
       <c r="D29">
-        <v>0.42893647227634202</v>
+        <v>0.44295609599785302</v>
       </c>
       <c r="E29">
         <v>0.44569650152129803</v>
+      </c>
+      <c r="F29">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="G29">
+        <v>0.44019483959917399</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5265,16 +5404,22 @@
         <v>22</v>
       </c>
       <c r="B30">
-        <v>1.20004091486983E-4</v>
+        <v>2.5856085963030601E-2</v>
       </c>
       <c r="C30">
         <v>7.7552304471485797E-2</v>
       </c>
       <c r="D30">
-        <v>2.5856085963030601E-2</v>
+        <v>1.20004091486983E-4</v>
       </c>
       <c r="E30">
         <v>1.5361957258571099E-4</v>
+      </c>
+      <c r="F30">
+        <v>2.2915706528781701E-3</v>
+      </c>
+      <c r="G30">
+        <v>8.5597866403550795E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5282,16 +5427,22 @@
         <v>23</v>
       </c>
       <c r="B31">
-        <v>1.1557501961827799E-4</v>
+        <v>2.3098464003703301E-2</v>
       </c>
       <c r="C31">
         <v>7.2425891359757202E-2</v>
       </c>
       <c r="D31">
-        <v>2.3098464003703301E-2</v>
+        <v>1.1557501961827799E-4</v>
       </c>
       <c r="E31">
         <v>1.4719698905210599E-4</v>
+      </c>
+      <c r="F31">
+        <v>2.0767354574725799E-3</v>
+      </c>
+      <c r="G31">
+        <v>7.6380964587044299E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5320,6 +5471,12 @@
       <c r="E35">
         <v>0.44295609599785302</v>
       </c>
+      <c r="F35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="G35">
+        <v>0.44295609599785302</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5337,22 +5494,34 @@
       <c r="E36">
         <v>0.44295609599785302</v>
       </c>
+      <c r="F36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="G36">
+        <v>0.44295609599785302</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1.8702968764208001E-3</v>
+        <v>0.15898785552165801</v>
       </c>
       <c r="C38">
         <v>0.46536833952368001</v>
       </c>
       <c r="D38">
-        <v>0.15898785552165801</v>
+        <v>1.8702968764208001E-3</v>
       </c>
       <c r="E38">
         <v>2.2702471490636E-3</v>
+      </c>
+      <c r="F38">
+        <v>2.0192558426078699E-2</v>
+      </c>
+      <c r="G38">
+        <v>6.0241038877520699E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5360,35 +5529,46 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>2.3086322133876401E-4</v>
+        <v>3.8978500709643697E-2</v>
       </c>
       <c r="C39">
         <v>7.7339713538861696E-2</v>
       </c>
       <c r="D39">
-        <v>3.8978500709643697E-2</v>
+        <v>2.3086322133876401E-4</v>
       </c>
       <c r="E39">
         <v>2.9042210533849398E-4</v>
+      </c>
+      <c r="F39">
+        <v>3.9742356256705904E-3</v>
+      </c>
+      <c r="G39">
+        <v>1.40672549790658E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="17">
-        <v>2.1753902132322099E-7</v>
+      <c r="B40">
+        <v>3.01960881956779E-3</v>
       </c>
       <c r="C40">
         <v>2.51485334579706E-2</v>
       </c>
-      <c r="D40">
-        <v>3.01960881956779E-3</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="D40" s="16">
+        <v>2.1753902132322099E-7</v>
+      </c>
+      <c r="E40" s="16">
         <v>3.2887347778848499E-7</v>
       </c>
-      <c r="G40" s="17"/>
+      <c r="F40" s="16">
+        <v>3.7212499987306903E-5</v>
+      </c>
+      <c r="G40">
+        <v>3.8925697260110099E-4</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">

--- a/julia/Parameterizations/calibration_Nov4.xlsx
+++ b/julia/Parameterizations/calibration_Nov4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\teachers\julia\Parameterizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9199B90-008A-42C7-891E-E19B951A32F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABC21C1-2F85-4603-93ED-43452F43787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="occ_shares" sheetId="4" r:id="rId2"/>
     <sheet name="compar_stat" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="exo_wage" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4818,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E39CD9E-1C94-476B-AB01-C44D77640615}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/julia/Parameterizations/calibration_Nov4.xlsx
+++ b/julia/Parameterizations/calibration_Nov4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\teachers\julia\Parameterizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABC21C1-2F85-4603-93ED-43452F43787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC5E064-CFC2-4961-A8E3-7AE9312650B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="144">
   <si>
     <t>output</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>lambda_male (scale of tau rel to T)</t>
+  </si>
+  <si>
+    <t>previousParam</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +514,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -532,9 +541,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -545,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -568,6 +595,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,19 +943,19 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -927,7 +966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -938,7 +977,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -949,7 +988,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -960,7 +999,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -971,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -982,7 +1021,7 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -993,7 +1032,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1004,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1015,17 +1054,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -1039,7 +1078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1096,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1113,7 @@
         <v>2.1449533009588174E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1131,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1101,42 +1140,42 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1147,7 +1186,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1158,7 +1197,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1169,7 +1208,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1180,7 +1219,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1191,7 +1230,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1202,7 +1241,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1213,7 +1252,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1224,7 +1263,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1235,7 +1274,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1246,7 +1285,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1257,7 +1296,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1268,7 +1307,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1279,7 +1318,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1290,7 +1329,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1301,7 +1340,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1327,21 +1366,21 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>61</v>
       </c>
@@ -1353,7 +1392,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>62</v>
@@ -1374,7 +1413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1397,7 +1436,7 @@
         <v>6.2335872520255173E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1420,7 +1459,7 @@
         <v>3.5200129202444079E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1443,7 +1482,7 @@
         <v>1.0373879572555247E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -1466,7 +1505,7 @@
         <v>2.7671933460741299E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -1489,7 +1528,7 @@
         <v>7.2977847164275526E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -1512,7 +1551,7 @@
         <v>6.5230007267637474E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -1535,7 +1574,7 @@
         <v>3.5799843880380071E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1558,7 +1597,7 @@
         <v>9.4479287233183492E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -1581,7 +1620,7 @@
         <v>3.5866598476487849E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -1604,7 +1643,7 @@
         <v>8.1202659416973966E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1627,7 +1666,7 @@
         <v>0.20629323571370892</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1650,7 +1689,7 @@
         <v>4.9904444025732821E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1673,7 +1712,7 @@
         <v>8.2451616376409784E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -1696,7 +1735,7 @@
         <v>6.5344136093241096E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1719,7 +1758,7 @@
         <v>6.4159780355845068E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -1742,7 +1781,7 @@
         <v>1.1409652499259777E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1765,7 +1804,7 @@
         <v>2.8308255497833168E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1788,7 +1827,7 @@
         <v>3.005356517994132E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -1811,7 +1850,7 @@
         <v>7.3849963661812602E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -1834,7 +1873,7 @@
         <v>0.27795106457430485</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1877,26 +1916,26 @@
       <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
-    <col min="15" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.28515625" customWidth="1"/>
-    <col min="20" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" customWidth="1"/>
-    <col min="26" max="27" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.33203125" customWidth="1"/>
+    <col min="20" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" customWidth="1"/>
+    <col min="24" max="24" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" customWidth="1"/>
+    <col min="26" max="27" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1906,7 +1945,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1986,7 +2025,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2105,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2146,7 +2185,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2268,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2309,7 +2348,7 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2389,7 +2428,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2469,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2549,7 +2588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>126</v>
       </c>
@@ -2632,7 +2671,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>127</v>
       </c>
@@ -2715,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>130</v>
       </c>
@@ -2760,7 +2799,7 @@
       </c>
       <c r="AE13" s="6"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>129</v>
       </c>
@@ -2868,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2990,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -3034,7 +3073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3091,7 +3130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3174,7 +3213,7 @@
       </c>
       <c r="AI19" s="14"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3257,7 +3296,7 @@
       </c>
       <c r="AI20" s="14"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -3306,7 +3345,7 @@
       </c>
       <c r="AI21" s="14"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3383,7 +3422,7 @@
       <c r="AE22" s="14"/>
       <c r="AI22" s="14"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3413,7 +3452,7 @@
       </c>
       <c r="AI23" s="14"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -3496,7 +3535,7 @@
       </c>
       <c r="AI24" s="14"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -3579,7 +3618,7 @@
       </c>
       <c r="AI25" s="14"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3662,7 +3701,7 @@
       </c>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3745,7 +3784,7 @@
       </c>
       <c r="AI27" s="14"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -3828,7 +3867,7 @@
       </c>
       <c r="AI28" s="14"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -3911,7 +3950,7 @@
       </c>
       <c r="AI29" s="14"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -3994,7 +4033,7 @@
       </c>
       <c r="AI30" s="14"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -4074,7 +4113,7 @@
       </c>
       <c r="AI31" s="14"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -4104,7 +4143,7 @@
       </c>
       <c r="AI32" s="14"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -4131,7 +4170,7 @@
       <c r="AE33" s="14"/>
       <c r="AI33" s="14"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4161,7 +4200,7 @@
       </c>
       <c r="AI34" s="14"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -4244,7 +4283,7 @@
       </c>
       <c r="AI35" s="14"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -4321,7 +4360,7 @@
       <c r="AE36" s="14"/>
       <c r="AI36" s="14"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -4351,7 +4390,7 @@
       </c>
       <c r="AI37" s="14"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -4437,7 +4476,7 @@
       </c>
       <c r="AI38" s="14"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4520,7 +4559,7 @@
       </c>
       <c r="AI39" s="14"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -4600,17 +4639,17 @@
       <c r="AE40" s="14"/>
       <c r="AI40" s="14"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AG41">
         <v>-0.40501578988283699</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="AG42">
         <v>-0.15641919199107601</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -4618,27 +4657,27 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -4657,154 +4696,154 @@
       <selection sqref="A1:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -4816,24 +4855,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E39CD9E-1C94-476B-AB01-C44D77640615}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="23"/>
+    <col min="10" max="10" width="8.88671875" style="19"/>
+    <col min="11" max="11" width="8.88671875" style="20"/>
+    <col min="12" max="12" width="8.88671875" style="23"/>
+    <col min="13" max="13" width="8.88671875" style="19"/>
+    <col min="14" max="14" width="8.88671875" style="20"/>
+    <col min="15" max="15" width="8.88671875" style="23"/>
+    <col min="16" max="16" width="8.88671875" style="19"/>
+    <col min="17" max="17" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4855,8 +4915,47 @@
       <c r="G2">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I2" s="23">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J2" s="19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K2" s="20">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L2" s="23">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M2" s="19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="N2" s="20">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="O2" s="23">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="P2" s="19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="R2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="S2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="T2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4878,8 +4977,47 @@
       <c r="G3">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="N3" s="20">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="O3" s="23">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4901,8 +5039,47 @@
       <c r="G4">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.999</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.999</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.999</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0.999</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0.999</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0.999</v>
+      </c>
+      <c r="N4" s="20">
+        <v>0.999</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0.999</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0.999</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>0.999</v>
+      </c>
+      <c r="R4">
+        <v>0.999</v>
+      </c>
+      <c r="S4">
+        <v>0.999</v>
+      </c>
+      <c r="T4">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4924,8 +5101,47 @@
       <c r="G5">
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="N5" s="20">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4947,8 +5163,47 @@
       <c r="G6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -4970,8 +5225,47 @@
       <c r="G7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="P7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>137</v>
       </c>
@@ -4993,8 +5287,47 @@
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>2</v>
+      </c>
+      <c r="K8" s="20">
+        <v>2</v>
+      </c>
+      <c r="L8" s="23">
+        <v>2</v>
+      </c>
+      <c r="M8" s="19">
+        <v>2</v>
+      </c>
+      <c r="N8" s="20">
+        <v>2</v>
+      </c>
+      <c r="O8" s="23">
+        <v>2</v>
+      </c>
+      <c r="P8" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -5016,8 +5349,47 @@
       <c r="G9">
         <v>2010</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>2010</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2010</v>
+      </c>
+      <c r="J9" s="19">
+        <v>2010</v>
+      </c>
+      <c r="K9" s="20">
+        <v>2010</v>
+      </c>
+      <c r="L9" s="23">
+        <v>2010</v>
+      </c>
+      <c r="M9" s="19">
+        <v>2010</v>
+      </c>
+      <c r="N9" s="20">
+        <v>2010</v>
+      </c>
+      <c r="O9" s="23">
+        <v>2010</v>
+      </c>
+      <c r="P9" s="19">
+        <v>2010</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R9">
+        <v>2010</v>
+      </c>
+      <c r="S9">
+        <v>2010</v>
+      </c>
+      <c r="T9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -5039,8 +5411,47 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="20">
+        <v>1</v>
+      </c>
+      <c r="L10" s="23">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19">
+        <v>1</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1</v>
+      </c>
+      <c r="O10" s="23">
+        <v>1</v>
+      </c>
+      <c r="P10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -5062,9 +5473,48 @@
       <c r="G11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="H11">
+        <v>2010</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2010</v>
+      </c>
+      <c r="J11" s="19">
+        <v>2010</v>
+      </c>
+      <c r="K11" s="20">
+        <v>2010</v>
+      </c>
+      <c r="L11" s="23">
+        <v>2010</v>
+      </c>
+      <c r="M11" s="19">
+        <v>2010</v>
+      </c>
+      <c r="N11" s="20">
+        <v>2010</v>
+      </c>
+      <c r="O11" s="23">
+        <v>2010</v>
+      </c>
+      <c r="P11" s="19">
+        <v>2010</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>2010</v>
+      </c>
+      <c r="R11">
+        <v>2010</v>
+      </c>
+      <c r="S11">
+        <v>2010</v>
+      </c>
+      <c r="T11">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B12">
@@ -5085,9 +5535,48 @@
       <c r="G12">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="H12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="20">
+        <v>1</v>
+      </c>
+      <c r="L12" s="23">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <v>1</v>
+      </c>
+      <c r="N12" s="20">
+        <v>1</v>
+      </c>
+      <c r="O12" s="23">
+        <v>1</v>
+      </c>
+      <c r="P12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B13">
@@ -5108,14 +5597,53 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="20">
+        <v>1</v>
+      </c>
+      <c r="L13" s="23">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19">
+        <v>1</v>
+      </c>
+      <c r="N13" s="20">
+        <v>1</v>
+      </c>
+      <c r="O13" s="23">
+        <v>1</v>
+      </c>
+      <c r="P13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B15">
@@ -5136,8 +5664,47 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="20">
+        <v>0</v>
+      </c>
+      <c r="O15" s="23">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>136</v>
       </c>
@@ -5154,13 +5721,52 @@
         <v>1.01</v>
       </c>
       <c r="F16" s="5">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="24">
+        <v>1.01</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0.99</v>
+      </c>
+      <c r="L16" s="24">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21">
+        <v>1</v>
+      </c>
+      <c r="N16" s="22">
+        <v>1</v>
+      </c>
+      <c r="O16" s="24">
+        <v>1</v>
+      </c>
+      <c r="P16" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
@@ -5174,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
         <v>1.1000000000000001</v>
@@ -5182,8 +5788,47 @@
       <c r="G17" s="5">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K17" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L17" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M17" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N17" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O17" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P17" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>140</v>
       </c>
@@ -5192,7 +5837,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -5205,17 +5850,54 @@
       <c r="D20" s="16">
         <v>3.7691675988456602E-6</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16">
         <v>4.7514101157888599E-6</v>
       </c>
-      <c r="F20" s="16">
+      <c r="G20" s="16">
         <v>1.5851470806748499E-3</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6.5724461834853103E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="25">
+        <v>2.1468817766932299E-3</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="K20" s="26">
+        <v>5.3619165504635399E-2</v>
+      </c>
+      <c r="L20" s="23">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="M20">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="N20" s="20">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="O20" s="23">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="P20">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="R20">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="S20">
+        <v>1.86162795394412E-2</v>
+      </c>
+      <c r="T20">
+        <v>1.86162795394412E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -5228,17 +5910,53 @@
       <c r="D21">
         <v>3.74181457780348E-3</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>4.4936918354969903E-3</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3.7737999106506499E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.11074020749276001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="25">
+        <v>4.6749273287714299E-3</v>
+      </c>
+      <c r="J21" s="10">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="K21" s="26">
+        <v>9.5890260288067505E-2</v>
+      </c>
+      <c r="L21" s="23">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="M21">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="N21" s="20">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="O21" s="23">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="P21">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="R21">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="S21">
+        <v>3.4608957656979501E-2</v>
+      </c>
+      <c r="T21">
+        <v>3.4608957656979501E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -5251,17 +5969,58 @@
       <c r="D22">
         <v>270.73201588421699</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>227.026454379021</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>26.6791224346705</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>8.9998789524543596</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="25">
+        <v>146.29084768598699</v>
+      </c>
+      <c r="J22" s="10">
+        <v>18.809922917120499</v>
+      </c>
+      <c r="K22" s="26">
+        <v>6.7264285112949098</v>
+      </c>
+      <c r="L22" s="25">
+        <v>18.884247947850199</v>
+      </c>
+      <c r="M22" s="10">
+        <v>18.809922917120499</v>
+      </c>
+      <c r="N22" s="26">
+        <v>18.8148108423667</v>
+      </c>
+      <c r="O22" s="25">
+        <v>18.8158447723169</v>
+      </c>
+      <c r="P22" s="10">
+        <v>18.809922917120499</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>18.885334348263999</v>
+      </c>
+      <c r="R22" s="10">
+        <v>18.888783033408998</v>
+      </c>
+      <c r="S22" s="10">
+        <v>18.809922917120499</v>
+      </c>
+      <c r="T22" s="10">
+        <v>18.808142723584201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J23"/>
+      <c r="M23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -5274,17 +6033,53 @@
       <c r="D24">
         <v>0.997258825868933</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.99798579618518601</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.99636570673414304</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.99134710269517701</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="25">
+        <v>0.99585028992006897</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0.94672883903096705</v>
+      </c>
+      <c r="L24" s="23">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="M24">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="N24" s="20">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="O24" s="23">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="P24">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="R24">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="S24">
+        <v>0.97974766439869598</v>
+      </c>
+      <c r="T24">
+        <v>0.97974766439869598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -5297,17 +6092,53 @@
       <c r="D25">
         <v>0.99422785112084</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.99354979688447898</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.96172045776163795</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.89772416068217598</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="25">
+        <v>0.99337313402569405</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0.96462460142502005</v>
+      </c>
+      <c r="K25" s="26">
+        <v>0.90995533210420099</v>
+      </c>
+      <c r="L25" s="23">
+        <v>0.96462460142501905</v>
+      </c>
+      <c r="M25">
+        <v>0.96462460142502005</v>
+      </c>
+      <c r="N25" s="20">
+        <v>0.96462460142502005</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0.96462460142501905</v>
+      </c>
+      <c r="P25">
+        <v>0.96462460142502005</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>0.96462460142502005</v>
+      </c>
+      <c r="R25">
+        <v>0.96462460142502005</v>
+      </c>
+      <c r="S25">
+        <v>0.96462460142502005</v>
+      </c>
+      <c r="T25">
+        <v>0.96462460142501905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -5320,17 +6151,56 @@
       <c r="D26" s="16">
         <v>1.2337512032765601E-5</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16">
         <v>1.59453439331234E-5</v>
       </c>
-      <c r="F26" s="16">
+      <c r="G26" s="16">
         <v>2.31304652478287E-4</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>8.2030825145163301E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="27">
+        <v>2.6685660426783098E-5</v>
+      </c>
+      <c r="J26" s="28">
+        <v>3.1817816499430198E-4</v>
+      </c>
+      <c r="K26" s="29">
+        <v>1.0116950020486099E-3</v>
+      </c>
+      <c r="L26" s="27">
+        <v>6.1004350004943296E-4</v>
+      </c>
+      <c r="M26" s="28">
+        <v>3.1817816499430198E-4</v>
+      </c>
+      <c r="N26" s="26">
+        <v>1.3674141807305299E-4</v>
+      </c>
+      <c r="O26" s="27">
+        <v>4.6036522132553799E-4</v>
+      </c>
+      <c r="P26" s="28">
+        <v>3.1817816499430198E-4</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>2.18620779760385E-4</v>
+      </c>
+      <c r="R26" s="28">
+        <v>8.4733928298235295E-4</v>
+      </c>
+      <c r="S26" s="28">
+        <v>3.1817816499430198E-4</v>
+      </c>
+      <c r="T26" s="28">
+        <v>8.9619467649421002E-5</v>
+      </c>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -5343,17 +6213,56 @@
       <c r="D27" s="16">
         <v>1.18821631625977E-5</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16">
         <v>1.5278695135325199E-5</v>
       </c>
-      <c r="F27" s="16">
+      <c r="G27" s="16">
         <v>2.0961979621999001E-4</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>7.3198010811620297E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="27">
+        <v>2.62205181179363E-5</v>
+      </c>
+      <c r="J27" s="28">
+        <v>3.1009396655511199E-4</v>
+      </c>
+      <c r="K27" s="29">
+        <v>9.8538654476314691E-4</v>
+      </c>
+      <c r="L27" s="27">
+        <v>5.9454365356868496E-4</v>
+      </c>
+      <c r="M27" s="28">
+        <v>3.1009396655511199E-4</v>
+      </c>
+      <c r="N27" s="29">
+        <v>1.33267123227652E-4</v>
+      </c>
+      <c r="O27" s="27">
+        <v>4.4866836650281897E-4</v>
+      </c>
+      <c r="P27" s="28">
+        <v>3.1009396655511199E-4</v>
+      </c>
+      <c r="Q27" s="29">
+        <v>2.13066112718587E-4</v>
+      </c>
+      <c r="R27" s="28">
+        <v>8.2581027922726204E-4</v>
+      </c>
+      <c r="S27" s="28">
+        <v>3.1009396655511199E-4</v>
+      </c>
+      <c r="T27" s="28">
+        <v>8.7342436601405899E-5</v>
+      </c>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -5366,17 +6275,53 @@
       <c r="D28">
         <v>0.44295609599785302</v>
       </c>
-      <c r="E28" s="16">
+      <c r="F28" s="16">
         <v>0.44569650152129803</v>
       </c>
-      <c r="F28" s="16">
-        <v>0.44295609599785302</v>
-      </c>
-      <c r="G28">
+      <c r="G28" s="16">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="H28">
         <v>0.44019483959917399</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="25">
+        <v>0.44569650152129803</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="K28" s="26">
+        <v>0.44019483959917399</v>
+      </c>
+      <c r="L28" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="M28">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="N28">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="O28" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="P28">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="R28">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="S28">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="T28">
+        <v>0.44295609599785302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -5389,17 +6334,53 @@
       <c r="D29">
         <v>0.44295609599785302</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.44569650152129803</v>
       </c>
-      <c r="F29">
-        <v>0.44295609599785302</v>
-      </c>
       <c r="G29">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="H29">
         <v>0.44019483959917399</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="25">
+        <v>0.44569650152129803</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="K29" s="26">
+        <v>0.44019483959917399</v>
+      </c>
+      <c r="L29" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="M29">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="N29" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="P29">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="R29">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="S29">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="T29">
+        <v>0.44295609599785302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -5412,17 +6393,53 @@
       <c r="D30">
         <v>1.20004091486983E-4</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.5361957258571099E-4</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.2915706528781701E-3</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>8.5597866403550795E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="25">
+        <v>2.5747937291602198E-4</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3.17702123868076E-3</v>
+      </c>
+      <c r="K30" s="26">
+        <v>1.07508418105544E-2</v>
+      </c>
+      <c r="L30" s="25">
+        <v>6.0913078564360399E-3</v>
+      </c>
+      <c r="M30" s="10">
+        <v>3.17702123868076E-3</v>
+      </c>
+      <c r="N30" s="26">
+        <v>1.3653683288832701E-3</v>
+      </c>
+      <c r="O30" s="25">
+        <v>4.5967644754233697E-3</v>
+      </c>
+      <c r="P30" s="10">
+        <v>3.17702123868076E-3</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>2.1829369106083399E-3</v>
+      </c>
+      <c r="R30" s="10">
+        <v>8.4607153933761396E-3</v>
+      </c>
+      <c r="S30" s="10">
+        <v>3.17702123868076E-3</v>
+      </c>
+      <c r="T30" s="10">
+        <v>8.9485383802679502E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -5435,27 +6452,74 @@
       <c r="D31">
         <v>1.1557501961827799E-4</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.4719698905210599E-4</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.0767354574725799E-3</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7.6380964587044299E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="25">
+        <v>2.5299139892237901E-4</v>
+      </c>
+      <c r="J31" s="10">
+        <v>3.0963002057353499E-3</v>
+      </c>
+      <c r="K31" s="26">
+        <v>1.04712733022756E-2</v>
+      </c>
+      <c r="L31" s="25">
+        <v>5.9365412920286201E-3</v>
+      </c>
+      <c r="M31" s="10">
+        <v>3.0963002057353499E-3</v>
+      </c>
+      <c r="N31" s="26">
+        <v>1.3306773609676201E-3</v>
+      </c>
+      <c r="O31" s="25">
+        <v>4.4799709292722397E-3</v>
+      </c>
+      <c r="P31" s="10">
+        <v>3.0963002057353499E-3</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>2.1274733461431098E-3</v>
+      </c>
+      <c r="R31" s="10">
+        <v>8.2457474612467104E-3</v>
+      </c>
+      <c r="S31" s="10">
+        <v>3.0963002057353499E-3</v>
+      </c>
+      <c r="T31" s="10">
+        <v>8.7211759526541904E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32"/>
+      <c r="M32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33"/>
+      <c r="M33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J34"/>
+      <c r="M34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -5468,17 +6532,53 @@
       <c r="D35">
         <v>0.44295609599785302</v>
       </c>
-      <c r="E35">
-        <v>0.44295609599785302</v>
-      </c>
       <c r="F35">
         <v>0.44295609599785302</v>
       </c>
       <c r="G35">
         <v>0.44295609599785302</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="J35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="K35" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="L35" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="M35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="N35" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="O35" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="P35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="Q35" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="R35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="S35">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="T35">
+        <v>0.44295609599785302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -5491,17 +6591,58 @@
       <c r="D36">
         <v>0.44295609599785302</v>
       </c>
-      <c r="E36">
-        <v>0.44295609599785302</v>
-      </c>
       <c r="F36">
         <v>0.44295609599785302</v>
       </c>
       <c r="G36">
         <v>0.44295609599785302</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="J36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="K36" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="L36" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="M36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="N36" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="O36" s="23">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="P36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="R36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="S36">
+        <v>0.44295609599785302</v>
+      </c>
+      <c r="T36">
+        <v>0.44295609599785302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J37"/>
+      <c r="M37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5514,17 +6655,53 @@
       <c r="D38">
         <v>1.8702968764208001E-3</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.2702471490636E-3</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2.0192558426078699E-2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>6.0241038877520699E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="25">
+        <v>3.5131025249932699E-3</v>
+      </c>
+      <c r="J38" s="10">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="K38" s="26">
+        <v>7.71892983887566E-2</v>
+      </c>
+      <c r="L38" s="23">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="M38">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="N38" s="20">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="O38" s="23">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="P38">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="Q38" s="20">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="R38">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="S38">
+        <v>2.76086204484535E-2</v>
+      </c>
+      <c r="T38">
+        <v>2.76086204484535E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -5537,17 +6714,54 @@
       <c r="D39">
         <v>2.3086322133876401E-4</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>2.9042210533849398E-4</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>3.9742356256705904E-3</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>1.40672549790658E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="25">
+        <v>4.9583647067647299E-4</v>
+      </c>
+      <c r="J39" s="28">
+        <v>5.8604002401989102E-3</v>
+      </c>
+      <c r="K39" s="26">
+        <v>1.88890492014884E-2</v>
+      </c>
+      <c r="L39" s="25">
+        <v>1.1230263214154001E-2</v>
+      </c>
+      <c r="M39" s="28">
+        <v>5.8604002401989102E-3</v>
+      </c>
+      <c r="N39" s="26">
+        <v>2.51859627575606E-3</v>
+      </c>
+      <c r="O39" s="25">
+        <v>8.4791039861136404E-3</v>
+      </c>
+      <c r="P39" s="28">
+        <v>5.8604002401989102E-3</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>4.0244713486574397E-3</v>
+      </c>
+      <c r="R39" s="28">
+        <v>1.55991829699325E-2</v>
+      </c>
+      <c r="S39" s="28">
+        <v>5.8604002401989102E-3</v>
+      </c>
+      <c r="T39" s="28">
+        <v>1.6507237223571799E-3</v>
+      </c>
+      <c r="V39" s="16"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -5560,47 +6774,87 @@
       <c r="D40" s="16">
         <v>2.1753902132322099E-7</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16">
         <v>3.2887347778848499E-7</v>
       </c>
-      <c r="F40" s="16">
+      <c r="G40" s="16">
         <v>3.7212499987306903E-5</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>3.8925697260110099E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="27">
+        <v>8.6155567644476597E-7</v>
+      </c>
+      <c r="J40" s="28">
+        <v>7.5798017887315701E-5</v>
+      </c>
+      <c r="K40" s="29">
+        <v>6.8422523368222201E-4</v>
+      </c>
+      <c r="L40" s="27">
+        <v>2.4367135748251499E-4</v>
+      </c>
+      <c r="M40" s="28">
+        <v>7.5798017887315701E-5</v>
+      </c>
+      <c r="N40" s="29">
+        <v>1.6659882829054399E-5</v>
+      </c>
+      <c r="O40" s="27">
+        <v>5.9577812407048503E-5</v>
+      </c>
+      <c r="P40" s="28">
+        <v>7.5798017887315701E-5</v>
+      </c>
+      <c r="Q40" s="29">
+        <v>9.1424842343665899E-5</v>
+      </c>
+      <c r="R40" s="28">
+        <v>2.01014717006116E-4</v>
+      </c>
+      <c r="S40" s="28">
+        <v>7.5798017887315701E-5</v>
+      </c>
+      <c r="T40" s="28">
+        <v>2.13516253337316E-5</v>
+      </c>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>